--- a/Taks/3.2/расчет членов последовательности.xlsx
+++ b/Taks/3.2/расчет членов последовательности.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -377,14 +377,13 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -417,7 +416,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B10" si="0">(-1)^A2*FACT(A2)/FACT(4+A2)</f>
+        <f t="shared" ref="B2:B11" si="0">(-1)^A2*FACT(A2)/FACT(4+A2)</f>
         <v>2.7777777777777779E-3</v>
       </c>
       <c r="C2">
@@ -446,7 +445,7 @@
         <v>-1.1904761904761906E-3</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C10" si="2">C2+B3</f>
+        <f t="shared" ref="C3:C11" si="2">C2+B3</f>
         <v>-6.7460317460317455E-3</v>
       </c>
       <c r="E3">
@@ -454,11 +453,11 @@
         <v>-0.5</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F10" si="3">F2*E2</f>
+        <f t="shared" ref="F3:F11" si="3">F2*E2</f>
         <v>-1.1904761904761904E-3</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G10" si="4">G2+F3</f>
+        <f t="shared" ref="G3:G11" si="4">G2+F3</f>
         <v>-6.7460317460317464E-3</v>
       </c>
     </row>

--- a/Taks/3.2/расчет членов последовательности.xlsx
+++ b/Taks/3.2/расчет членов последовательности.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -24,6 +24,17 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -75,6 +86,114 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>23989</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="809625" y="57150"/>
+          <a:ext cx="419100" cy="1186039"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>840346</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>514349</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2895601" y="0"/>
+          <a:ext cx="840345" cy="514349"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -366,7 +485,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -374,270 +493,289 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="B1">
-        <f>(-1)^A1*FACT(A1)/FACT(4+A1)</f>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>(-1)^A2*FACT(A2)/FACT(4+A2)</f>
         <v>-8.3333333333333332E-3</v>
       </c>
-      <c r="C1">
-        <f>B1</f>
+      <c r="C2">
+        <f>B2</f>
         <v>-8.3333333333333332E-3</v>
       </c>
-      <c r="E1">
-        <f>-(A1+1) /(A1+5)</f>
+      <c r="E2">
+        <f>-(A2+1) /(A2+5)</f>
         <v>-0.33333333333333331</v>
       </c>
-      <c r="F1">
-        <f>C1</f>
+      <c r="F2">
+        <f>C2</f>
         <v>-8.3333333333333332E-3</v>
       </c>
-      <c r="G1">
-        <f>F1</f>
+      <c r="G2">
+        <f>F2</f>
         <v>-8.3333333333333332E-3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <f t="shared" ref="B2:B10" si="0">(-1)^A2*FACT(A2)/FACT(4+A2)</f>
-        <v>2.7777777777777779E-3</v>
-      </c>
-      <c r="C2">
-        <f>C1+B2</f>
-        <v>-5.5555555555555549E-3</v>
-      </c>
-      <c r="E2">
-        <f t="shared" ref="E2:E10" si="1">-(A2+1) /(A2+5)</f>
-        <v>-0.42857142857142855</v>
-      </c>
-      <c r="F2">
-        <f>F1*E1</f>
-        <v>2.7777777777777775E-3</v>
-      </c>
-      <c r="G2">
-        <f>G1+F2</f>
-        <v>-5.5555555555555558E-3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B11" si="0">(-1)^A3*FACT(A3)/FACT(4+A3)</f>
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="C3">
+        <f>C2+B3</f>
+        <v>-5.5555555555555549E-3</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E11" si="1">-(A3+1) /(A3+5)</f>
+        <v>-0.42857142857142855</v>
+      </c>
+      <c r="F3">
+        <f>F2*E2</f>
+        <v>2.7777777777777775E-3</v>
+      </c>
+      <c r="G3">
+        <f>G2+F3</f>
+        <v>-5.5555555555555558E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <f t="shared" si="0"/>
         <v>-1.1904761904761906E-3</v>
       </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C10" si="2">C2+B3</f>
+      <c r="C4">
+        <f t="shared" ref="C4:C11" si="2">C3+B4</f>
         <v>-6.7460317460317455E-3</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <f t="shared" si="1"/>
         <v>-0.5</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F10" si="3">F2*E2</f>
+      <c r="F4">
+        <f t="shared" ref="F4:F11" si="3">F3*E3</f>
         <v>-1.1904761904761904E-3</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G10" si="4">G2+F3</f>
+      <c r="G4">
+        <f t="shared" ref="G4:G11" si="4">G3+F4</f>
         <v>-6.7460317460317464E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <f t="shared" si="0"/>
         <v>5.9523809523809529E-4</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <f t="shared" si="2"/>
         <v>-6.1507936507936498E-3</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <f t="shared" si="1"/>
         <v>-0.55555555555555558</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <f t="shared" si="3"/>
         <v>5.9523809523809518E-4</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <f t="shared" si="4"/>
         <v>-6.1507936507936515E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <f t="shared" si="0"/>
         <v>-3.3068783068783067E-4</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <f t="shared" si="2"/>
         <v>-6.4814814814814804E-3</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <f t="shared" si="1"/>
         <v>-0.6</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <f t="shared" si="3"/>
         <v>-3.3068783068783067E-4</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <f t="shared" si="4"/>
         <v>-6.4814814814814822E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <f t="shared" si="0"/>
         <v>1.9841269841269841E-4</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <f t="shared" si="2"/>
         <v>-6.2830687830687819E-3</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <f t="shared" si="1"/>
         <v>-0.63636363636363635</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <f t="shared" si="3"/>
         <v>1.9841269841269839E-4</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <f t="shared" si="4"/>
         <v>-6.2830687830687836E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <f t="shared" si="0"/>
         <v>-1.2626262626262626E-4</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <f t="shared" si="2"/>
         <v>-6.4093314093314081E-3</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <f t="shared" si="1"/>
         <v>-0.66666666666666663</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <f t="shared" si="3"/>
         <v>-1.2626262626262624E-4</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <f t="shared" si="4"/>
         <v>-6.4093314093314098E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <f t="shared" si="0"/>
         <v>8.417508417508418E-5</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <f t="shared" si="2"/>
         <v>-6.3251563251563239E-3</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <f t="shared" si="1"/>
         <v>-0.69230769230769229</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <f t="shared" si="3"/>
         <v>8.4175084175084152E-5</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <f t="shared" si="4"/>
         <v>-6.3251563251563257E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <f t="shared" si="0"/>
         <v>-5.8275058275058275E-5</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <f t="shared" si="2"/>
         <v>-6.3834313834313823E-3</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <f t="shared" si="1"/>
         <v>-0.7142857142857143</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <f t="shared" si="3"/>
         <v>-5.8275058275058255E-5</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <f t="shared" si="4"/>
         <v>-6.383431383431384E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <f t="shared" si="0"/>
         <v>4.1625041625041625E-5</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <f t="shared" si="2"/>
         <v>-6.3418063418063404E-3</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <f t="shared" si="1"/>
         <v>-0.73333333333333328</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <f t="shared" si="3"/>
         <v>4.1625041625041611E-5</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <f t="shared" si="4"/>
         <v>-6.3418063418063421E-3</v>
       </c>
     </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>